--- a/tools/level.xlsx
+++ b/tools/level.xlsx
@@ -1,84 +1,378 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RC\文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RC\诗词\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79805B94-90A4-464B-AB06-751388D9C050}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5291AC1-7767-43B0-81D9-451FED1A0907}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Windows 用户</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D8753B23-DB86-4FB3-AC78-124F68B02592}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1：普通关卡</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+  <si>
+    <t>诗句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诗句类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诗句解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹅鹅鹅;曲项向天歌;白毛浮绿水;红掌拨清波;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;0;1;0;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白天鹅啊白天鹅;脖颈弯弯，向天欢叫;洁白的羽毛漂浮在碧绿水面;红红的脚掌拨动着清清水波;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诗名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咏鹅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆宾王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悯农</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李绅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锄禾日当午;汗滴禾下土;谁知盘中餐;粒粒皆辛苦;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;1;0;1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛夏中午，烈日炎炎，农民还在劳作;汗珠滴入泥土;有谁想到，我们碗中的米饭;粒粒饱含着农民的血汗;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远看山有色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>近听水无声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>春去花还在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人来鸟不惊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远看高山色彩明亮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>走到近处却听不到水的声音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>春天过去，可是依旧有许多花草争奇斗艳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人走近，可是鸟却依然没有被惊动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古朗月行(节选)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时不识月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>呼作白玉盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>又疑瑶台镜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>飞在青云端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
-  </si>
-  <si>
-    <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待分垃圾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -86,27 +380,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出现间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>garbage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;1;1;1;1;1;1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2;2;2;2;2;2;2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100;100;100;100;100;100;</t>
+    <t>小时候不认识月亮;把它称为白玉盘;又怀疑是瑶台仙镜;飞在夜空青云之上;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李峤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解落三秋叶;能开二月花;过江千尺浪;入竹万竿斜;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风能吹落秋天金黄的树叶;能吹开春天美丽的鲜花;刮过江面能掀千尺巨浪;吹进竹林能使万竿倾斜;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春晓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟浩然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春眠不觉晓;处处闻啼鸟;夜来风雨声;花落知多少;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春日里贪睡不知不觉天就亮了;到处可以听见小鸟的鸣叫声;回想昨夜的阵阵风雨声;不知吹落了多少娇美的春花;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠汪伦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李白乘舟将欲行;忽闻岸上踏歌声;桃花潭水深千尺;不及汪伦送我情;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;1;1;0;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李白乘舟将要远行离去;忽听岸上传来踏歌之声;即使桃花潭水深至千尺;也比不上汪伦送我之情;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静夜思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床前明月光;疑是地上霜;举头望明月;低头思故乡;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明亮的月光洒在窗户纸上;好像地上泛起了一层霜;我禁不住抬起头来，看那天窗外空中的一轮明月;不由得低头沉思，想起远方的家乡;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻隐者不遇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松下问童子;言师采药去;只在此山中;云深不知处;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍松下询问年少的学童;他说他的师傅已经去山中采药了;只知道就在这座大山里;可山中云雾缭绕不知道他的行踪;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨万里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉眼无声惜细流;树阴照水爱晴柔;小荷才露尖尖角;早有蜻蜓立上头;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉眼悄然无声是因舍不得细细的水流;树荫倒映水面是喜爱晴天里柔和的风光;小荷叶才刚从水面露出尖尖的角;就有一只小蜻蜓立在上头;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王安石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙角数枝梅;凌寒独自开;遥知不是雪;为有暗香来;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙角有几枝梅花;正冒着严寒独自盛开;远远的就知道洁白的梅花不是雪;因为有梅花的幽香传来;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐寅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头上红冠不用裁;满身雪白走将来;平生不敢轻言语;一叫千门万户开;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它头上的红色冠子不用裁剪是天生的;身披雪白的羽毛雄纠纠地走来;一生之中它从来不敢轻易鸣叫;但是它叫的时候，千家万户的门都打开;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小儿垂钓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡令能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓬头稚子学垂纶;侧坐莓苔草映身;路人借问遥招手;怕得鱼惊不应人;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个头发蓬乱、面孔青嫩的小孩在河边学钓鱼;侧身坐在青苔上绿草映衬着他的身影;听到有过路的人问路，小孩漠不关心地摆了摆手;不敢回应路人生怕惊动了鱼儿;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登鹳雀楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王之涣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白日依山尽;黄河入海流;欲穷千里目;更上一层楼;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夕阳依傍着山峦渐渐下落;滔滔黄河朝着大海汹涌奔流;若想把千里的风光景物看够;那就请再登上一层高楼;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>望庐山瀑布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日照香炉生紫烟;遥看瀑布挂前川;飞流直下三千尺;疑是银河落九天;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香炉峰在阳光的照射下生起紫色烟霞;远远望见瀑布似白色绢绸悬挂山前;高崖上飞腾直落的瀑布好像有几千尺;好像是银河从九天垂落山崖间;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +556,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,9 +572,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color rgb="FF0F0F0F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0F0F0F"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -160,7 +607,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -440,92 +889,386 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="113" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>16</v>
       </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>